--- a/Analysis/Analysis.xlsx
+++ b/Analysis/Analysis.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DNYANADA\OneDrive\Desktop\major\SmartGrading\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4EE4C3-55DB-4952-8EFB-1C4918A4110F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056F32C3-31DD-4891-8983-66776C3C6039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{922E697E-819A-46AA-A404-5F13824DD418}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{922E697E-819A-46AA-A404-5F13824DD418}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain1" sheetId="1" r:id="rId1"/>
+    <sheet name="Domain2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="29">
   <si>
     <t>Domain 1</t>
   </si>
@@ -78,6 +81,48 @@
   </si>
   <si>
     <t>Based on Batch Size</t>
+  </si>
+  <si>
+    <t>Domain 2</t>
+  </si>
+  <si>
+    <t>3.8413 value is constant throughout the process of epochs</t>
+  </si>
+  <si>
+    <t>Predictions</t>
+  </si>
+  <si>
+    <t>Essay</t>
+  </si>
+  <si>
+    <t>Actual Score</t>
+  </si>
+  <si>
+    <t>Predicated Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models </t>
+  </si>
+  <si>
+    <t>Why LSTM ??</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>Mean Squared Error</t>
+  </si>
+  <si>
+    <t>Kappa Score</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbor</t>
+  </si>
+  <si>
+    <t>Desion Tree Classifier</t>
   </si>
 </sst>
 </file>
@@ -144,11 +189,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,21 +511,666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EDA1FD-C463-4DD9-A351-3649E1C96C05}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>200</v>
+      </c>
+      <c r="D5" s="3">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.7870999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>200</v>
+      </c>
+      <c r="D6" s="3">
+        <v>64</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.5568999999999997</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>200</v>
+      </c>
+      <c r="D7" s="3">
+        <v>64</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.0394000000000001</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>200</v>
+      </c>
+      <c r="D9" s="3">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.5568999999999997</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>200</v>
+      </c>
+      <c r="D10" s="3">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5.5568999999999997</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>200</v>
+      </c>
+      <c r="D11" s="3">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.0163</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>200</v>
+      </c>
+      <c r="D13" s="3">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>200</v>
+      </c>
+      <c r="D14" s="3">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5.5568999999999997</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3">
+        <v>200</v>
+      </c>
+      <c r="D15" s="3">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>200</v>
+      </c>
+      <c r="D20" s="3">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.0394000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3">
+        <v>400</v>
+      </c>
+      <c r="D21" s="3">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.0016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>600</v>
+      </c>
+      <c r="D22" s="3">
+        <v>64</v>
+      </c>
+      <c r="E22">
+        <v>0.99239999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>200</v>
+      </c>
+      <c r="D24" s="3">
+        <v>64</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.0163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>400</v>
+      </c>
+      <c r="D25" s="3">
+        <v>64</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.97609999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3">
+        <v>600</v>
+      </c>
+      <c r="D26" s="3">
+        <v>64</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.92390000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>200</v>
+      </c>
+      <c r="D28" s="3">
+        <v>64</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>400</v>
+      </c>
+      <c r="D29" s="3">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3">
+        <v>600</v>
+      </c>
+      <c r="D30" s="3">
+        <v>64</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3">
+        <v>200</v>
+      </c>
+      <c r="D35" s="3">
+        <v>32</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.0166999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3">
+        <v>200</v>
+      </c>
+      <c r="D36" s="3">
+        <v>64</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.0394000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3">
+        <v>200</v>
+      </c>
+      <c r="D37" s="3">
+        <v>128</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.0435000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3">
+        <v>200</v>
+      </c>
+      <c r="D39" s="3">
+        <v>32</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.0015000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3">
+        <v>200</v>
+      </c>
+      <c r="D40" s="3">
+        <v>64</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.0163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3">
+        <v>200</v>
+      </c>
+      <c r="D41" s="3">
+        <v>128</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1.0154000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3">
+        <v>200</v>
+      </c>
+      <c r="D43" s="3">
+        <v>32</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3">
+        <v>200</v>
+      </c>
+      <c r="D44" s="3">
+        <v>64</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3">
+        <v>200</v>
+      </c>
+      <c r="D45" s="3">
+        <v>128</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.98070000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9362FE00-335F-4DC1-BEFD-675726C6DE8C}">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -516,7 +1209,7 @@
         <v>64</v>
       </c>
       <c r="E5" s="3">
-        <v>5.7870999999999997</v>
+        <v>3.8412999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -531,7 +1224,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="3">
-        <v>5.5568999999999997</v>
+        <v>3.8412999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -546,7 +1239,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="3">
-        <v>1.0394000000000001</v>
+        <v>1.0709</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -570,7 +1263,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="3">
-        <v>5.5568999999999997</v>
+        <v>3.8412999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -585,7 +1278,7 @@
         <v>64</v>
       </c>
       <c r="E10" s="3">
-        <v>5.5568999999999997</v>
+        <v>3.8412999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -600,7 +1293,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="3">
-        <v>1.0163</v>
+        <v>1.0711999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -624,7 +1317,7 @@
         <v>64</v>
       </c>
       <c r="E13" s="3">
-        <v>5.5570000000000004</v>
+        <v>3.8412999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -639,7 +1332,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="3">
-        <v>5.5568999999999997</v>
+        <v>3.8412999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -654,61 +1347,51 @@
         <v>64</v>
       </c>
       <c r="E15" s="3">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+        <v>1.0415000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3">
-        <v>200</v>
-      </c>
-      <c r="D20" s="3">
-        <v>64</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.0394000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D21" s="3">
         <v>64</v>
       </c>
       <c r="E21" s="3">
-        <v>1.0016</v>
+        <v>1.0709</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -717,52 +1400,48 @@
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="D22" s="3">
         <v>64</v>
       </c>
-      <c r="E22">
-        <v>0.99239999999999995</v>
-      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>600</v>
+      </c>
+      <c r="D23" s="3">
+        <v>64</v>
+      </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3">
-        <v>200</v>
-      </c>
-      <c r="D24" s="3">
-        <v>64</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1.0163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D25" s="3">
         <v>64</v>
       </c>
       <c r="E25" s="3">
-        <v>0.97609999999999997</v>
+        <v>1.0711999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -771,52 +1450,48 @@
         <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="D26" s="3">
         <v>64</v>
       </c>
-      <c r="E26" s="3">
-        <v>0.92390000000000005</v>
-      </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
+        <v>600</v>
+      </c>
+      <c r="D27" s="3">
+        <v>64</v>
+      </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3">
-        <v>200</v>
-      </c>
-      <c r="D28" s="3">
-        <v>64</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D29" s="3">
         <v>64</v>
       </c>
       <c r="E29" s="3">
-        <v>0.95830000000000004</v>
+        <v>1.0415000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -825,67 +1500,63 @@
         <v>8</v>
       </c>
       <c r="C30" s="3">
+        <v>400</v>
+      </c>
+      <c r="D30" s="3">
+        <v>64</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
         <v>600</v>
       </c>
-      <c r="D30" s="3">
-        <v>64</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.91669999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="D31" s="3">
+        <v>64</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="3">
-        <v>200</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3">
+        <v>200</v>
+      </c>
+      <c r="D36" s="3">
         <v>32</v>
       </c>
-      <c r="E35" s="3">
-        <v>1.0166999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="3">
-        <v>200</v>
-      </c>
-      <c r="D36" s="3">
-        <v>64</v>
-      </c>
       <c r="E36" s="3">
-        <v>1.0394000000000001</v>
+        <v>1.0951</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -897,49 +1568,49 @@
         <v>200</v>
       </c>
       <c r="D37" s="3">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E37" s="3">
-        <v>1.0435000000000001</v>
+        <v>1.0709</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3">
+        <v>200</v>
+      </c>
+      <c r="D38" s="3">
+        <v>128</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1.0188999999999999</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="3">
-        <v>200</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3">
+        <v>200</v>
+      </c>
+      <c r="D40" s="3">
         <v>32</v>
       </c>
-      <c r="E39" s="3">
-        <v>1.0015000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="3">
-        <v>200</v>
-      </c>
-      <c r="D40" s="3">
-        <v>64</v>
-      </c>
       <c r="E40" s="3">
-        <v>1.0163</v>
+        <v>1.0206999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -951,49 +1622,49 @@
         <v>200</v>
       </c>
       <c r="D41" s="3">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E41" s="3">
-        <v>1.0154000000000001</v>
+        <v>1.0711999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3">
+        <v>200</v>
+      </c>
+      <c r="D42" s="3">
+        <v>128</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1.0691999999999999</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3">
-        <v>200</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3">
+        <v>200</v>
+      </c>
+      <c r="D44" s="3">
         <v>32</v>
       </c>
-      <c r="E43" s="3">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="3">
-        <v>200</v>
-      </c>
-      <c r="D44" s="3">
-        <v>64</v>
-      </c>
       <c r="E44" s="3">
-        <v>0.96499999999999997</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1005,14 +1676,140 @@
         <v>200</v>
       </c>
       <c r="D45" s="3">
+        <v>64</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1.0415000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="3">
+        <v>200</v>
+      </c>
+      <c r="D46" s="3">
         <v>128</v>
       </c>
-      <c r="E45" s="3">
-        <v>0.98070000000000002</v>
+      <c r="E46" s="3">
+        <v>1.0549999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126BB70A-035D-4722-9E28-5C916042C9D7}">
+  <dimension ref="A3:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.85</v>
+      </c>
+      <c r="C6">
+        <v>22.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0.64</v>
+      </c>
+      <c r="C7">
+        <v>40.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.95</v>
+      </c>
+      <c r="C8">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0.92</v>
+      </c>
+      <c r="C9">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0.86</v>
+      </c>
+      <c r="C10">
+        <v>24.07</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7A8DED-D80A-45DC-85EA-12E7CC933793}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analysis/Analysis.xlsx
+++ b/Analysis/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DNYANADA\OneDrive\Desktop\major\SmartGrading\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3CE825-C8EC-4088-8679-09A954B50C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54093CB-C04E-40FE-827E-9B6FB1DD1308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{922E697E-819A-46AA-A404-5F13824DD418}"/>
+    <workbookView minimized="1" xWindow="5436" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{922E697E-819A-46AA-A404-5F13824DD418}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
   <si>
     <t>Domain 1</t>
   </si>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>Variance</t>
+  </si>
+  <si>
+    <t>In the memior, "Narciso Rodriguez" form Home: The Blueprints of Our lives there are relevant and specific pieces of information describing the mood created by the author.This quote or textual evidence shows that the mood of the author is very "warm" and free. "Here, the innocence of childhood, the congregation in the family and friends, and the celebrations that encompassed both, formed the backdrop to life in our warm home." This quote shows that the author is very warm because he says, "the congregation of family and friends, and also, "life in our 'warm' home." The first quote shows he was very free with feeling and the second quote shows that he was "warm" inside.This quote shows that the mood the author changed to be very loving. "I will never forget that house or its neighborhood or the many things I learned about how to love." This quote shows that the author is very loving because he says, "learned there about how to love." This shows that the authors mood was very loving.</t>
+  </si>
+  <si>
+    <t>Welcome to the @DATE1. In this day in age, numerous advances in technology are being made everyday. The one advance that has stood out above the rest is the invention of the computer. For just one invention, the computer has many capabilities: @CAPS1 access for educational purposes, keeping people in touch, and opening people up to new aspects of life. The computer has helped mankind with various discoveries about our world. As far as many can see, this piece of technology has positive effects on people everywhere, everyday. The new trend in schools all around the globe is the addition of computers or a computer lab. The reason for this is that this technology takes learning to places it has never gone before. Whether a student has to write on essay about the presidency of @PERSON1 or obtain background information for a science experiment about paper towel also bency a computer can aid them in finding the information they need. Programs like @ORGANIZATION1 allow @CAPS1 to present their work in a new and efficient way. For children that don't "school or adults that want a college education, computers let them learn what they need to from online schools. It is also important to @CAPS1 that they can keep in touch with friends after school hours. Computers are able to help them with this. How many times has it been said that communication is key to a healthy relationship? Computers, believe it or not, are on easy and way to maintain contact with far away people. Some friends and family keep in touch completely by computer. Because they don't live close enough to visit daily. If one is cautious and uses internet safety techniques they can make new friends with common interests through computers. This contact with new people is just one way that computer is croaden one's horizons. Computers are like keys; they open doors to new places and ideas. The use of this technology can old people in discovering so many new things they have never known before. Computers can help open people up to unique genres of music they have never listened to before. On the internet, there are many video tutorials that teach people different skills for free. In one's spare time, they could use a computer to research the people of @LOCATION1 or the pyramids of @LOCATION2. Any way a computer is used has the potential to have a positive effect on someone. In the @DATE1, computer are essential to evey day life. It is imperative that you decide whether you are for this remarkable pece of technology or against it. It is astounding what you could learn from just hopping on a computer. Especially keep in mind that computers are for more than just entertainment: they're for education as well. So what are you waiting for? Discover how great an impact computers can have on your life with just a click of the mouse.</t>
+  </si>
+  <si>
+    <t>I think the computer dire a postive effect on people all over the world. You can do lots of things on the computer like an acidemic work, talk on the enernet, or even find out facts' about fam'us people you love, people computer. I think computer can benfit socity becuse computers can help you with your acidimic work, and can also talk to you friends online. One way i can benfit from using the computer by, typing my school work. But when in not doing my school work talking to my friends online. But the best thing of all is finding out information about famuse people like @PERSON1. I rember when is was doing a project on the computer and got a @NUM1 on it becuse i used the computer. That should prove that computers are very help full. Have you ever wondered how a computer can help you in your ever day life. If you said no i can tell you how. You can learn about diffrent places and food. Lets say i was going to make pizza and i did not know how i would have to look on the computer how to. A professor from virgin new york tech school said that with out computers the world is nothing. @PERCENT1 of people at new york tech school agreed but @PERCENT2 did not could you immagin a world with out computers. I if the world did not have computers we would not have cell phones or even t.v. Not ever on know the cell phones or computers lets face it with out computers the world would be lost like the proffser from new york tech said. Also teenagrs would be bored becuse most teenangers do not like to go out side and if we do not have computers how will adults do there work or they will have to handwrite it. Lets be honsest some adults and kids hand writing is like chicken scrach so to say. I think computer are very helpful for everyone around the world. In closing i think the hole world should keep computers becus with out computers the world is lost, to the past paper.</t>
+  </si>
+  <si>
+    <t>2 (2.229)</t>
+  </si>
+  <si>
+    <t>9 (9.16)</t>
+  </si>
+  <si>
+    <t>8 (7.88)</t>
   </si>
 </sst>
 </file>
@@ -215,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -235,6 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81826F58-FD83-4F6C-BA65-CF9E9C5F229F}">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1150,9 +1169,12 @@
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="2.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
     <col min="14" max="14" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1236,10 +1258,10 @@
         <v>15</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>17</v>
@@ -1267,12 +1289,18 @@
       <c r="G7" s="7">
         <v>0.92</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
+      <c r="K7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1281,10 +1309,10 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="M8" s="7"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1294,10 +1322,10 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="M9" s="7"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1306,7 +1334,7 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1331,12 +1359,18 @@
       <c r="G11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
+      <c r="K11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -1361,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="M12" s="7"/>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1388,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="M13" s="7"/>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1416,7 +1450,7 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1427,12 +1461,18 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
+      <c r="K15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3"/>
+      <c r="M15" s="7">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -1457,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="M16" s="7"/>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1484,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="M17" s="7"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">

--- a/Analysis/Analysis.xlsx
+++ b/Analysis/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DNYANADA\OneDrive\Desktop\major\SmartGrading\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFF39F9-F9BA-4F7B-B56D-540018E64FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90680B71-3E85-4EE2-816C-696308C30259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{922E697E-819A-46AA-A404-5F13824DD418}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{922E697E-819A-46AA-A404-5F13824DD418}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparative" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
   <si>
     <t>Domain 1</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Relu</t>
   </si>
   <si>
-    <t>Bi LSTM</t>
-  </si>
-  <si>
-    <t>Attention Mechanism</t>
-  </si>
-  <si>
     <t>Batch size</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t xml:space="preserve">Models </t>
   </si>
   <si>
-    <t>Why LSTM ??</t>
-  </si>
-  <si>
     <t>Linear Regression</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>QWK</t>
   </si>
   <si>
-    <t>Attention</t>
-  </si>
-  <si>
     <t>Epochs</t>
   </si>
   <si>
@@ -167,13 +155,40 @@
   </si>
   <si>
     <t xml:space="preserve">K folds </t>
+  </si>
+  <si>
+    <t>LSTM + BiLSTM + Attention Mechanism</t>
+  </si>
+  <si>
+    <t>LSTM (2)</t>
+  </si>
+  <si>
+    <t>LSTM + Bi LSTM (2)</t>
+  </si>
+  <si>
+    <t>Based on K folds</t>
+  </si>
+  <si>
+    <t>Choosing Best Model</t>
+  </si>
+  <si>
+    <t>2(2.31)</t>
+  </si>
+  <si>
+    <t>10(10.113)</t>
+  </si>
+  <si>
+    <t>9(8.586)</t>
+  </si>
+  <si>
+    <t>3(3.25)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +220,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,11 +265,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -267,8 +307,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126BB70A-035D-4722-9E28-5C916042C9D7}">
   <dimension ref="A3:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,26 +647,26 @@
   <sheetData>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>0.85</v>
@@ -629,7 +680,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>0.64</v>
@@ -657,7 +708,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>0.92</v>
@@ -671,7 +722,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>0.86</v>
@@ -693,13 +744,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81826F58-FD83-4F6C-BA65-CF9E9C5F229F}">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="37.21875" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
@@ -707,14 +758,14 @@
     <col min="9" max="9" width="2.5546875" customWidth="1"/>
     <col min="10" max="10" width="2.44140625" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" customWidth="1"/>
     <col min="13" max="13" width="11.88671875" customWidth="1"/>
     <col min="14" max="14" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -725,30 +776,30 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
@@ -767,11 +818,11 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
+      <c r="A6" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6">
         <v>50</v>
@@ -789,24 +840,24 @@
         <v>0.92</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
+      <c r="A7" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6">
         <v>50</v>
@@ -824,16 +875,16 @@
         <v>0.92</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="M7" s="6">
         <v>3</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -844,12 +895,14 @@
       <c r="E8" s="4"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="M8" s="6">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -859,16 +912,18 @@
       <c r="E9" s="4"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="M9" s="6">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -883,39 +938,39 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="M11" s="6">
         <v>10</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="6">
         <v>50</v>
@@ -934,19 +989,19 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="M12" s="6">
         <v>10</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6">
         <v>50</v>
@@ -965,17 +1020,19 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="M13" s="6">
         <v>10</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6">
         <v>50</v>
@@ -984,7 +1041,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="6">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="F14" s="6">
         <v>7.86</v>
@@ -1006,24 +1063,24 @@
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="K15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="M15" s="6">
         <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
+      <c r="A16" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6">
         <v>50</v>
@@ -1042,19 +1099,19 @@
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="M16" s="6">
         <v>8</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="6">
         <v>50</v>
@@ -1073,17 +1130,19 @@
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="M17" s="6">
         <v>8</v>
       </c>
-      <c r="N17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6">
         <v>50</v>
@@ -1092,7 +1151,7 @@
         <v>64</v>
       </c>
       <c r="E18" s="6">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F18" s="6">
         <v>6.66</v>
@@ -1100,6 +1159,8 @@
       <c r="G18" s="6">
         <v>0.92</v>
       </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -1109,13 +1170,15 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>7</v>
+      <c r="A20" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6">
         <v>50</v>
@@ -1132,11 +1195,12 @@
       <c r="G20" s="6">
         <v>0</v>
       </c>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="6">
         <v>50</v>
@@ -1153,11 +1217,12 @@
       <c r="G21" s="6">
         <v>0</v>
       </c>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22" s="6">
         <v>50</v>
@@ -1185,13 +1250,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EDA1FD-C463-4DD9-A351-3649E1C96C05}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
     <col min="8" max="8" width="14.21875" customWidth="1"/>
@@ -1208,7 +1273,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1222,16 +1287,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="10"/>
@@ -1239,8 +1304,8 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
+      <c r="A5" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1380,7 +1445,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
@@ -1520,7 +1585,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
@@ -1531,8 +1596,12 @@
       <c r="D17" s="3">
         <v>64</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="G17" s="9">
         <v>5</v>
       </c>
@@ -1552,8 +1621,12 @@
       <c r="D18" s="3">
         <v>64</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.23</v>
+      </c>
       <c r="G18" s="9">
         <v>5</v>
       </c>
@@ -1573,8 +1646,12 @@
       <c r="D19" s="3">
         <v>64</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.36</v>
+      </c>
       <c r="G19" s="9">
         <v>5</v>
       </c>
@@ -1594,8 +1671,12 @@
       <c r="D20" s="3">
         <v>64</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.32</v>
+      </c>
       <c r="G20" s="9">
         <v>5</v>
       </c>
@@ -1615,8 +1696,12 @@
       <c r="D21" s="3">
         <v>64</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.27</v>
+      </c>
       <c r="G21" s="9">
         <v>5</v>
       </c>
@@ -1639,7 +1724,9 @@
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1656,21 +1743,21 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
+      <c r="A26" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
@@ -1745,7 +1832,7 @@
         <v>128</v>
       </c>
       <c r="E29" s="3">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="3">
         <v>0.28000000000000003</v>
@@ -1778,7 +1865,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
@@ -1810,7 +1897,12 @@
       <c r="D33" s="3">
         <v>128</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0.3</v>
+      </c>
       <c r="G33" s="9">
         <v>10</v>
       </c>
@@ -1851,7 +1943,7 @@
         <v>0.5</v>
       </c>
       <c r="F35" s="3">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G35" s="9">
         <v>10</v>
@@ -1881,7 +1973,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -1910,9 +2002,15 @@
       <c r="C39" s="3">
         <v>500</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="3">
+        <v>128</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.23</v>
+      </c>
       <c r="G39" s="9">
         <v>10</v>
       </c>
@@ -1925,9 +2023,15 @@
       <c r="C40" s="3">
         <v>1000</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="D40" s="3">
+        <v>128</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.31</v>
+      </c>
       <c r="G40" s="9">
         <v>10</v>
       </c>

--- a/Analysis/Analysis.xlsx
+++ b/Analysis/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DNYANADA\OneDrive\Desktop\major\SmartGrading\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90680B71-3E85-4EE2-816C-696308C30259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E47AEE3-07B7-499D-A1AD-2AB06A9E0161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{922E697E-819A-46AA-A404-5F13824DD418}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{922E697E-819A-46AA-A404-5F13824DD418}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparative" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="47">
   <si>
     <t>Domain 1</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Predictions</t>
   </si>
   <si>
-    <t>Essay</t>
-  </si>
-  <si>
     <t>Actual Score</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>K-Nearest Neighbor</t>
   </si>
   <si>
-    <t>Desion Tree Classifier</t>
-  </si>
-  <si>
     <t>QWK</t>
   </si>
   <si>
@@ -127,15 +121,6 @@
     <t>Variance</t>
   </si>
   <si>
-    <t>In the memior, "Narciso Rodriguez" form Home: The Blueprints of Our lives there are relevant and specific pieces of information describing the mood created by the author.This quote or textual evidence shows that the mood of the author is very "warm" and free. "Here, the innocence of childhood, the congregation in the family and friends, and the celebrations that encompassed both, formed the backdrop to life in our warm home." This quote shows that the author is very warm because he says, "the congregation of family and friends, and also, "life in our 'warm' home." The first quote shows he was very free with feeling and the second quote shows that he was "warm" inside.This quote shows that the mood the author changed to be very loving. "I will never forget that house or its neighborhood or the many things I learned about how to love." This quote shows that the author is very loving because he says, "learned there about how to love." This shows that the authors mood was very loving.</t>
-  </si>
-  <si>
-    <t>Welcome to the @DATE1. In this day in age, numerous advances in technology are being made everyday. The one advance that has stood out above the rest is the invention of the computer. For just one invention, the computer has many capabilities: @CAPS1 access for educational purposes, keeping people in touch, and opening people up to new aspects of life. The computer has helped mankind with various discoveries about our world. As far as many can see, this piece of technology has positive effects on people everywhere, everyday. The new trend in schools all around the globe is the addition of computers or a computer lab. The reason for this is that this technology takes learning to places it has never gone before. Whether a student has to write on essay about the presidency of @PERSON1 or obtain background information for a science experiment about paper towel also bency a computer can aid them in finding the information they need. Programs like @ORGANIZATION1 allow @CAPS1 to present their work in a new and efficient way. For children that don't "school or adults that want a college education, computers let them learn what they need to from online schools. It is also important to @CAPS1 that they can keep in touch with friends after school hours. Computers are able to help them with this. How many times has it been said that communication is key to a healthy relationship? Computers, believe it or not, are on easy and way to maintain contact with far away people. Some friends and family keep in touch completely by computer. Because they don't live close enough to visit daily. If one is cautious and uses internet safety techniques they can make new friends with common interests through computers. This contact with new people is just one way that computer is croaden one's horizons. Computers are like keys; they open doors to new places and ideas. The use of this technology can old people in discovering so many new things they have never known before. Computers can help open people up to unique genres of music they have never listened to before. On the internet, there are many video tutorials that teach people different skills for free. In one's spare time, they could use a computer to research the people of @LOCATION1 or the pyramids of @LOCATION2. Any way a computer is used has the potential to have a positive effect on someone. In the @DATE1, computer are essential to evey day life. It is imperative that you decide whether you are for this remarkable pece of technology or against it. It is astounding what you could learn from just hopping on a computer. Especially keep in mind that computers are for more than just entertainment: they're for education as well. So what are you waiting for? Discover how great an impact computers can have on your life with just a click of the mouse.</t>
-  </si>
-  <si>
-    <t>I think the computer dire a postive effect on people all over the world. You can do lots of things on the computer like an acidemic work, talk on the enernet, or even find out facts' about fam'us people you love, people computer. I think computer can benfit socity becuse computers can help you with your acidimic work, and can also talk to you friends online. One way i can benfit from using the computer by, typing my school work. But when in not doing my school work talking to my friends online. But the best thing of all is finding out information about famuse people like @PERSON1. I rember when is was doing a project on the computer and got a @NUM1 on it becuse i used the computer. That should prove that computers are very help full. Have you ever wondered how a computer can help you in your ever day life. If you said no i can tell you how. You can learn about diffrent places and food. Lets say i was going to make pizza and i did not know how i would have to look on the computer how to. A professor from virgin new york tech school said that with out computers the world is nothing. @PERCENT1 of people at new york tech school agreed but @PERCENT2 did not could you immagin a world with out computers. I if the world did not have computers we would not have cell phones or even t.v. Not ever on know the cell phones or computers lets face it with out computers the world would be lost like the proffser from new york tech said. Also teenagrs would be bored becuse most teenangers do not like to go out side and if we do not have computers how will adults do there work or they will have to handwrite it. Lets be honsest some adults and kids hand writing is like chicken scrach so to say. I think computer are very helpful for everyone around the world. In closing i think the hole world should keep computers becus with out computers the world is lost, to the past paper.</t>
-  </si>
-  <si>
     <t>2 (2.229)</t>
   </si>
   <si>
@@ -182,6 +167,15 @@
   </si>
   <si>
     <t>3(3.25)</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier</t>
+  </si>
+  <si>
+    <t>Essay Id</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -298,7 +292,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -315,6 +308,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -634,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126BB70A-035D-4722-9E28-5C916042C9D7}">
   <dimension ref="A3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,26 +643,26 @@
   <sheetData>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>0.85</v>
@@ -680,7 +676,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>0.64</v>
@@ -697,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="C8" s="3">
         <v>7.47</v>
@@ -708,7 +704,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>0.92</v>
@@ -721,8 +717,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>18</v>
+      <c r="A10" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="3">
         <v>0.86</v>
@@ -742,17 +738,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81826F58-FD83-4F6C-BA65-CF9E9C5F229F}">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.21875" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="8" max="8" width="2.77734375" customWidth="1"/>
     <col min="9" max="9" width="2.5546875" customWidth="1"/>
@@ -765,7 +761,7 @@
   <sheetData>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -776,19 +772,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>8</v>
@@ -796,10 +792,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
@@ -819,10 +815,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6">
         <v>50</v>
@@ -840,24 +836,24 @@
         <v>0.92</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6">
         <v>50</v>
@@ -874,17 +870,17 @@
       <c r="G7" s="6">
         <v>0.92</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>30</v>
+      <c r="K7" s="6">
+        <v>12915</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M7" s="6">
         <v>3</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -893,15 +889,15 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M8" s="6">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -910,22 +906,22 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M9" s="6">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="K10" s="6"/>
       <c r="L10" s="3"/>
       <c r="M10" s="6"/>
       <c r="N10" s="3"/>
@@ -938,39 +934,39 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="K11" s="6">
+        <v>457</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M11" s="6">
         <v>10</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6">
         <v>50</v>
@@ -987,21 +983,21 @@
       <c r="G12" s="6">
         <v>0</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M12" s="6">
         <v>10</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6">
         <v>50</v>
@@ -1018,21 +1014,21 @@
       <c r="G13" s="6">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M13" s="6">
         <v>10</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6">
         <v>50</v>
@@ -1049,7 +1045,7 @@
       <c r="G14" s="6">
         <v>0.9</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="3"/>
       <c r="M14" s="6"/>
       <c r="N14" s="3"/>
@@ -1062,25 +1058,25 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
-      <c r="K15" s="3" t="s">
-        <v>32</v>
+      <c r="K15" s="6">
+        <v>476</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M15" s="6">
         <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="6">
         <v>50</v>
@@ -1097,21 +1093,21 @@
       <c r="G16" s="6">
         <v>0</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M16" s="6">
         <v>8</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6">
         <v>50</v>
@@ -1128,21 +1124,21 @@
       <c r="G17" s="6">
         <v>0</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M17" s="6">
         <v>8</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="6">
         <v>50</v>
@@ -1159,8 +1155,8 @@
       <c r="G18" s="6">
         <v>0.92</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -1170,15 +1166,15 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="6">
         <v>50</v>
@@ -1195,12 +1191,12 @@
       <c r="G20" s="6">
         <v>0</v>
       </c>
-      <c r="L20" s="10"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6">
         <v>50</v>
@@ -1217,12 +1213,12 @@
       <c r="G21" s="6">
         <v>0</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6">
         <v>50</v>
@@ -1239,6 +1235,66 @@
       <c r="G22" s="6">
         <v>0.92</v>
       </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.92421584391753098</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.95639814720889804</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.96212161394276197</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1248,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EDA1FD-C463-4DD9-A351-3649E1C96C05}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1272,7 +1328,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1290,22 +1346,22 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1319,16 +1375,16 @@
       <c r="E5" s="3">
         <v>0.44</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>0.24</v>
       </c>
-      <c r="G5" s="9">
-        <v>5</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="G5" s="8">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -1347,13 +1403,13 @@
       <c r="F6" s="3">
         <v>0.32</v>
       </c>
-      <c r="G6" s="9">
-        <v>5</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="G6" s="8">
+        <v>5</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -1372,13 +1428,13 @@
       <c r="F7" s="3">
         <v>0.25</v>
       </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -1397,13 +1453,13 @@
       <c r="F8" s="3">
         <v>0.26</v>
       </c>
-      <c r="G8" s="9">
-        <v>5</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="G8" s="8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -1422,13 +1478,13 @@
       <c r="F9" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G9" s="9">
-        <v>5</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="G9" s="8">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -1437,15 +1493,15 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
@@ -1462,13 +1518,13 @@
       <c r="F11" s="3">
         <v>0.25</v>
       </c>
-      <c r="G11" s="9">
-        <v>5</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="G11" s="8">
+        <v>5</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -1487,13 +1543,13 @@
       <c r="F12" s="3">
         <v>0.31</v>
       </c>
-      <c r="G12" s="9">
-        <v>5</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="G12" s="8">
+        <v>5</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -1512,13 +1568,13 @@
       <c r="F13" s="3">
         <v>0.31</v>
       </c>
-      <c r="G13" s="9">
-        <v>5</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -1537,13 +1593,13 @@
       <c r="F14" s="3">
         <v>0.27</v>
       </c>
-      <c r="G14" s="9">
-        <v>5</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="G14" s="8">
+        <v>5</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -1562,13 +1618,13 @@
       <c r="F15" s="3">
         <v>0.26</v>
       </c>
-      <c r="G15" s="9">
-        <v>5</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="G15" s="8">
+        <v>5</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -1577,15 +1633,15 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
@@ -1602,13 +1658,13 @@
       <c r="F17" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G17" s="9">
-        <v>5</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="G17" s="8">
+        <v>5</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
@@ -1627,13 +1683,13 @@
       <c r="F18" s="3">
         <v>0.23</v>
       </c>
-      <c r="G18" s="9">
-        <v>5</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="G18" s="8">
+        <v>5</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -1652,13 +1708,13 @@
       <c r="F19" s="3">
         <v>0.36</v>
       </c>
-      <c r="G19" s="9">
-        <v>5</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="G19" s="8">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -1677,13 +1733,13 @@
       <c r="F20" s="3">
         <v>0.32</v>
       </c>
-      <c r="G20" s="9">
-        <v>5</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="G20" s="8">
+        <v>5</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
@@ -1702,35 +1758,35 @@
       <c r="F21" s="3">
         <v>0.27</v>
       </c>
-      <c r="G21" s="9">
-        <v>5</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="G21" s="8">
+        <v>5</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="A24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -1746,18 +1802,18 @@
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
@@ -1771,10 +1827,10 @@
       <c r="E26" s="3">
         <v>0.42</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>0.26</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1795,7 +1851,7 @@
       <c r="F27" s="3">
         <v>0.37</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1816,7 +1872,7 @@
       <c r="F28" s="3">
         <v>0.26</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1837,52 +1893,60 @@
       <c r="F29" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="9">
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>100</v>
+      </c>
+      <c r="D31" s="3">
+        <v>128</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G31" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="9"/>
-    </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D32" s="3">
         <v>128</v>
       </c>
       <c r="E32" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="G32" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G32" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1892,18 +1956,18 @@
         <v>5</v>
       </c>
       <c r="C33" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D33" s="3">
         <v>128</v>
       </c>
       <c r="E33" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="F33" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="G33" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="G33" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1913,164 +1977,130 @@
         <v>5</v>
       </c>
       <c r="C34" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D34" s="3">
         <v>128</v>
       </c>
       <c r="E34" s="3">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="F34" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="G34" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>200</v>
+      </c>
+      <c r="D36" s="3">
         <v>128</v>
       </c>
-      <c r="E35" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G35" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="9">
+      <c r="E36" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="G36" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="9"/>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>500</v>
+      </c>
+      <c r="D37" s="3">
+        <v>128</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="G37" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D38" s="3">
         <v>128</v>
       </c>
       <c r="E38" s="3">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="F38" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="G38" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="G38" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="3">
-        <v>500</v>
-      </c>
-      <c r="D39" s="3">
-        <v>128</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.47</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="G39" s="9">
-        <v>10</v>
-      </c>
+      <c r="A39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>128</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="G40" s="9">
-        <v>10</v>
-      </c>
+      <c r="A40" s="9"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="10"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
